--- a/flask/sum_article_extend.xlsx
+++ b/flask/sum_article_extend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ASMR\api\asmr-classifer-server\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92224586-4BE6-4959-AA3A-856BED80C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F3159-08B3-49EE-801A-B71816774501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="261">
   <si>
     <t>url</t>
   </si>
@@ -613,10 +613,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>tag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>아키텍쳐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -871,43 +867,89 @@
     <t>파워 유저 커브(Power User Curve)는 사용자들이 얼마나 자주 서비스에 방문하는지를 측정하여 충성도 높은 사용자를 시각적으로 표현하는 그래프입니다. 당근마켓은 매일 방문하는 사용자가 많아지면서 파워 유저 커브가 스마일 모양을 그리기 시작했습니다. 오래된 지역일수록 스마일 모양이 더 뚜렷하며, 지방의 경우에도 시간이 지남에 따라 점차 개선되고 있습니다. 이를 통해 서비스 활성화 정도를 측정하고, 사용자 만족도를 높이기 위한 방향성을 확인할 수 있습니다.</t>
   </si>
   <si>
+    <t>당근마켓 검색팀은 사용자 경험을 개선하기 위해 중고거래 필터를 새롭게 디자인하고, 접근성을 높이는 작업을 진행했습니다. 기존 필터는 한 번에 여러 조건을 볼 수 있었지만, 존재를 인지하기 어려워 필터 사용성을 높이기 위해 팁 형태로 노출하고 적용된 값을 표시하는 방식으로 디자인을 변경했습니다. 또한, 사용자 행동 데이터를 분석해 검색어마다 적절한 카테고리와 가격 구간을 추천하여 필터 사용을 더 편리하게 만들었습니다. 이를 통해 필터 사용 비율이 증가했고, 검색 서비스 품질이 향상되었습니다. 필터 데이터를 통해 사용자 행동을 더 잘 이해할 수 있었으며, 앞으로도 검색 랭킹을 개선해 나갈 계획입니다.</t>
+  </si>
+  <si>
+    <t>이 글에서는 당근마켓의 검색팀이 중고거래 검색 랭킹을 개선하기 위해 카테고리를 활용한 과정을 설명합니다. 사용자가 옷장 검색 시 의류 판매글이 많이 나오는 문제를 해결하기 위해 검색어와 카테고리의 연관성을 분석하고, 검색 후 클릭률을 기반으로 카테고리별 중요도를 계산하여 검색 결과에 반영했습니다. 또한, 가방 검색 시 여성용 가방만 노출되는 문제를 해결하기 위해 카테고리 확장 모델을 도입하여 다양한 카테고리를 부스팅했습니다. 이를 통해 검색 품질이 크게 개선되었고, 사용자 경험이 향상되었습니다. 하지만 여전히 아이폰 검색 시 악세서리까지 나오는 문제 등 해결해야 할 과제가 남아 있으며, 검색팀은 이를 위해 다양한 특성을 검색 랭킹에 활용할 방법을 계속 모색하고 있습니다.</t>
+  </si>
+  <si>
+    <t>당근마켓 검색 시스템 개발자 Hy Lee가 검색 랭킹 파이프라인의 기술 스택과 단계를 설명하며 검색 랭킹이 어떻게 만들어지는지 소개합니다. 검색 문서 분류, 색인, 랭킹 모델 생성, 서빙 및 실험의 네 단계로 구성된 이 시스템은 문서 분류를 통해 문서의 종류를 식별하고, 색인 단계에서 문서의 제목과 내용 등을 검색 엔진에 등록합니다. 이후 랭킹 모델을 생성해 사용자 질의에 따른 문서의 가중치를 계산하고, 최종적으로 이를 서빙하여 사용자에게 검색 결과를 제공합니다. 각 단계는 시스템 안정성과 효율성을 고려해 설계되었으며, Airflow, Kubernetes, Spark 등 다양한 기술을 활용해 대규모 데이터를 처리합니다. 검색 시스템 개발의 도전과 과정을 공유하며 검색팀에 대한 지원을 독려합니다.</t>
+  </si>
+  <si>
+    <t>이 글에서는 프로젝트 일정계획 수립에 대한 네 가지 주요 모델인 CPM, CCPM, 스크럼, 칸반을 소개합니다. 각 모델의 특징과 차이점을 설명하며, 공통적으로 일정계획 수립 시 무엇을, 언제부터 언제까지 수행할지 결정해야 한다고 강조합니다. 일정계획 수립 모델을 적용할 때는 업무의 상세 정의, 일정관리 도구의 선택, 일정관리 도구의 목적, 내용의 중요성을 고려해야 합니다. CPM은 복잡한 관계가 있는 프로젝트에, CCPM은 자원 제약이 많은 프로젝트에 적합합니다. 스크럼은 동일한 개발주기가 필요한 프로젝트에, 칸반은 신뢰 기반의 운영 업무에 적합합니다. 이러한 설명을 통해 프로젝트 관리자가 상황에 맞는 일정계획 수립 모델을 선택하고 활용할 수 있도록 안내합니다.</t>
+  </si>
+  <si>
+    <t>이 글에서는 프로젝트 계획 수립의 중요성과 방법을 다룹니다. 프로젝트 헌장 작성, 시작 시 적당한 계획 수립, 프로젝트 계획 양식 작성 등의 단계를 설명합니다. WBS, 목표 일정, 위험 목록 등 계획 수립에 필요한 요소들을 강조하며, 계획은 경험을 바탕으로 주 단위로 점검해야 한다고 언급합니다. 또한, 프로젝트 출시 기준을 정의하고 SMART 원칙에 따라 명확하고 측정 가능하며 달성 가능한 기준을 설정할 것을 권장합니다. 출시 기준의 진척도는 프로젝트 대시보드에서 관리하며, 주기적으로 검토하여 목표를 달성하도록 합니다. 출시 기준을 팀원 및 상관과 공유하고 승인받는 절차도 강조합니다.</t>
+  </si>
+  <si>
+    <t>이 글은 우아한형제들 세일즈서비스팀이 효과적인 협업을 위해 도입한 다양한 시도와 방법들을 소개합니다. 이 팀은 신규 입사자의 온보딩을 위해 페어로 일하기, 대화의 시간, 당근 흔들기 같은 방법을 도입해 빠른 적응을 도왔습니다. 또한, 팀원 간 이해도 차이를 줄이기 위해 이벤트 스토밍과 품앗이 설명회를 통해 지식을 공유하고 있습니다. 이슈 해결 방식을 체계적으로 관리하고, 슬랙과 지라를 활용해 이슈를 일원화하고 우선순위에 따라 처리하는 방식을 도입해 업무 효율성을 높였습니다. 이러한 시도들은 팀원 간의 지식 격차를 줄이고, 새로운 입사자들도 빠르게 적응할 수 있도록 도와주었습니다. 결론적으로, 이 팀은 협업의 중요성을 강조하며 지속적으로 더 나은 일하는 방식을 찾기 위해 노력하고 있습니다.</t>
+  </si>
+  <si>
+    <t>이 글에서는 배민선물하기 팀의 PM 곽민경이 백로그를 효과적으로 관리하고, 이를 통해 프로덕트를 개선하는 방법에 대해 설명합니다. 백로그는 PM에게 중요한 과제이며, 우선순위를 잘못 설정하면 중요한 작업이 미뤄질 수 있습니다. 곽민경은 고객의 목소리를 모니터링하고, 작은 요구에서 출발하여 백로그를 분석한 후, 팀원들과 함께 '거절 경험 개선'이라는 과제로 정의하여 해결책을 모색했습니다. 이를 통해 거절 기능의 사용성을 개선하고 고객 만족도를 높였으며, 백로그를 체계적으로 관리하는 방법의 중요성을 강조했습니다. 백로그 관리는 단순히 할 일을 미루는 것이 아니라, 제품의 발전을 위한 중요한 과정이라는 메시지를 전달합니다.</t>
+  </si>
+  <si>
+    <t>B마트는 실험 문화가 전무했던 조직에서 가장 실험을 활발히 하는 조직으로 성장했습니다. 이 과정에서 추천시스템팀과의 협업을 통해 실험 성숙도를 높여나갔습니다. 실험 성숙도는 1단계에서 4단계로 나뉘며, 각 단계마다 목표와 방법이 다릅니다. B마트는 실험의 필요성을 인식하고 데이터를 기반으로 한 의사결정을 통해 지속적으로 개선해왔습니다. 실험을 성공적으로 수행하기 위해서는 실험 리소스 확보, 데이터 로깅 중요성 인식, 실험 설계 보완책, 실험 결과 해석 능력 향상이 필요합니다. 조직 내 실험 문화를 구축하고 성숙도를 높이는 과정은 많은 노력과 협업을 필요로 하지만, 이는 조직의 발전과 혁신에 크게 기여할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>우아한형제들의 PM들이 '배민 기획자의 일'이라는 책을 통해 그들의 경험과 인사이트를 공유한다. 다양한 배경을 가진 PM들이 자신의 경력 시작과 배경을 이야기하며, PM 업무의 보람과 어려움을 나눈다. 그들은 프로젝트 진행 중 발생하는 문제들을 해결하며, 다양한 부서와 협업하고, 때로는 고객과의 소통을 통해 더 나은 서비스를 제공하는 데 중점을 둔다. PM이 되기 위한 특정한 전공은 없으며, 다양한 경험을 통해 PM으로 성장할 수 있음을 강조한다. 책 쓰기 과정에서도 마치 PM처럼 체계적으로 접근하고, 동료들과 협업하여 완성해가는 과정을 통해 PM 업무의 본질과 매력을 다시금 확인한다. PM이 되고 싶은 사람들, 초보 PM들, 그리고 IT 업계에 종사하는 이들에게 이 책이 큰 도움이 될 것이다.</t>
+  </si>
+  <si>
+    <t>우아한형제들의 막내 PM인 이송인은 셀러시스템팀에서 일하며 겪은 경험을 통해 PM 업무의 도전과 해결 방안을 공유한다. 배달의민족의 MSA 구조와 복잡한 영향 범위 때문에 프로젝트를 조율하는 데 어려움이 많지만, 여러 부서와 협력해 문제를 해결해나가는 과정이 중요하다고 강조한다. 특히 '가게 운영시간 관리 개선' 프로젝트를 통해, 예상치 못한 일정 변경과 작업 범위 조율 등의 문제를 끈질기게 해결하는 경험을 나눈다. 결국, 솔직한 소통과 협력을 통해 문제의 본질을 파악하고 해결 방안을 찾는 것이 PM의 핵심 역할임을 강조하며, PM으로서의 용기와 지혜를 독려한다.</t>
+  </si>
+  <si>
+    <t>배민외식업광장 PM 권자경은 외식업 사장님들을 위한 '장사캘린더' 서비스를 개발하고 개선한 경험을 공유한다. 장사캘린더는 사장님들이 놓치기 쉬운 세무 일정, 지원 사업 신청 일자 등을 제공하는 캘린더 서비스이다. 프로젝트 시작 시 사장님의 니즈를 파악하고 검증된 아이템을 분석하여 '장사소식' 콘텐츠의 인기를 참고하였다. MVP 범위를 설정하고 빠르게 오픈하여 가설 검증을 통해 얻은 인사이트를 반영하였다. 오픈 후, 지원사업 수량 감소와 같은 문제를 해결하고 사용자 인터뷰를 통해 개선점을 찾아냈다. 이를 통해 사용자가 꼭 필요한 서비스를 만드는 방법을 배웠으며, PM으로서의 역할과 경험을 바탕으로 얻은 교훈을 공유하였다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배민앱의 장바구니는 웹뷰로 구현되어 있으며, 이 웹 애플리케이션은 React와 Vite를 활용해 개발되고 있다. 구버전 Safari와 Chrome 브라우저에서 화면 진입이 불가능한 문제가 발생하여 많은 사용자들이 흰 화면만 보게 되는 에러가 보고되었다. 이 문제는 특히 iOS 12와 Android 7을 사용하는 약 10,000명의 사용자에게 영향이 있었다. 문제를 해결하기 위해 Vite의 공식 플러그인인 @vitejs/plugin-legacy(레거시 플러그인)이 도입되었지만, Chrome 73 미만의 브라우저에서는 여전히 에러가 발생했다. 레거시 플러그인 설정만으로는 충분하지 않고, modernPolyfills와 polyfills 옵션을 통해 추가적인 설정이 필요하다는 것을 깨달았다. 폴리필을 통해 특정 브라우저에서 지원하지 않는 기능을 사용할 수 있도록 설정하는 것이 필요하며, Object.fromEntries is not a function 에러는 modernPolyfills 옵션에 es.object.from-entries 폴리필을 추가함으로써 해결할 수 있었다. 또한, 폴리필 설정을 true로 하여 전체 폴리필을 포함시키는 것이 장기적으로 유지보수가 용이하다고 판단하였다. 또한 Safari 12 브라우저에서 생기는 ResizeObserver 에러를 해결하기 위해 별도의 npm 패키지인 @juggle/resize-observer를 사용할 것을 결정하였다. 이를 통해 Vite 설정 파일에 modernPolyfills와 polyfills 옵션을 적절히 활용하여 모던 브라우저와 레거시 브라우저 모두에서 안정적으로 동작하는 번들을 생성하였다. \n\n레거시 플러그인을 통해 브라우저 호환성을 확보하면서도 최신 개발 환경을 유지할 수 있었으며, 성능 저하는 최소화하였다. 그러나 플러그인 자체의 한계와 추가적인 폴리필 적용 등의 문제는 여전히 남아있다.\n\n결국, 회사의 입장에서 구버전 사용자를 포기하지 않기 위해서는 구버전 브라우저 지원이 필수적이며, Vite의 레거시 플러그인은 이에 있어 큰 도움이 된다. 하지만, 웹 서비스의 모든 사용자에게 동일한 경험을 제공하기 위해서는 계속해서 브라우저의 다양성을 고려한 대응이 필요하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 글은 Java의 경량스레드 모델인 Virtual Thread에 대한 소개와 기존 스레드 모델과의 비교를 다룬다. Virtual Thread는 Java 21부터 제공되며 스레드 풀의 생성을 줄이고 컨텍스트 스위칭 비용을 낮춰 성능을 향상시킨다. 글은 Virtual Thread의 구조, 동작 원리, 비교 결과, 주의사항 등을 다루며, Kotlin의 Coroutine과의 비교도 제시한다. Virtual Thread를 활용하면 기존 스레드 모델보다 성능을 개선할 수 있지만, 특정 상황에서는 주의해야 할 점이 있음을 알려준다. 최신 Java 기술인 Virtual Thread의 장단점과 활용 방안을 알아보고자 하는 독자들에게 유익한 정보를 제공한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 만화경셀 안드로이드 개발자 오재환입니다. 이 글은 만화경 안드로이드 앱을 처음부터 개발하는 과정에서 제가 경험한 부분들을 공유하기 위해 작성되었습니다.\n\n만화경은 2020년에 여러 상을 받은 우아한형제들의 웹툰 플랫폼입니다. 저는 2019년 입사하여 만화경 안드로이드 개발을 담당하고 있습니다. 이번 글에서는 심도 있는 기술보다는 경험 중심으로 이야기를 나누고자 합니다 시작입사 후 첫 주는 우아한형제들의 컬쳐캠프와 세팅 등으로 바쁘게 지나갔습니다. 본격적인 개발은 2주차부터 시작되었습니다. 앱을 5개월 이내에 완성해야 했고, 기획과 디자인은 필요 시 함께 진행하는 방식이었습니다.첫 주차 - 환경설정 첫 주차에는 주로 환경설정에 몰두했으며, 다음 항목들을 설정했습니다:1. **컨벤션**: 코드 스타일, Android Lint, Ktlint, Detekt, Git Hooks 등을 설정하여 코드 작성 규칙을 세웠습니다.2. **아키텍처**: Naivagation과 Single Activity를 사용하고 ViewModel에는 여러 UseCase를 가지는 구조로 설계했습니다.3. **템플릿과 버저닝**: Android Studio의 템플릿 엔진을 활용하여 보일러 플레이트 코드를 자동 생성하고, Semantic Versioning을 기반으로 버전 관리를 했습니다.\n4. **CI/CD**: Bitrise를 이용해 CI 환경을 구축했습니다. 린트 체크, 자동 빌드, 배포 등 다양한 작업을 자동화했습니다.\n\n### 과정 설명\n\n#### 컨벤션의 날\n\n규칙을 세우는 것은 필수입니다. 다양한 스타일 가이드를 참고하여 코드를 작성하고 Android Lint, Ktlint, Detekt 등을 설정했습니다. Git Hooks를 통해 커밋 시 정적 분석을 실행하도록 했습니다.\n\n#### 아키텍처의 날\n\n유연한 설계를 위해 Naivagation과 Single Activity 중심의 구조로 설계했습니다. 내부 구현은 유동적으로 판단하여 개발했습니다.\n\n#### 템플릿과 버저닝의 날\n\n코드를 자동화하기 위해 Android Studio의 템플릿 엔진을 사용하고, 현재는 FreeMarker 대신 intelij 플랫폼 플러그인을 사용합니다. 또한, Semantic Versioning을 적용하여 버전 관리를 했습니다. CI/CD의 날Bitrise를 통해 CI 환경을 구축했습니다. 빌드, 테스트, 배포를 자동화하여 작업 효율을 높였습니다. Firebase App Distribution을 통해 각 빌드 타입별로 테스트 버전을 배포하고 있습니다. 기능 구현규칙과 아키텍처를 설정한 후 본격적인 기능 구현에 들어갔습니다. 2년 동안 많은 부분이 업데이트되었으며, 주요 변경 사항은 다음과 같습니다:- Fabric Beta에서 Firebase App Distribution으로 마이그레이션- RxJava2에서 RxJava3로 마이그레이션- Dagger Android에서 Dagger Hilt로 마이그레이션- 멀티모듈 적용- Gradle Kotlin DSL로 마이그레이션- FreeMaker에서 Intelij plugin으로 템플릿 마이그레이션마지막으로, 이 글을 통해 많은 개발자가 도움이 되었으면 합니다. 긴 글 읽어주셔서 감사합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기사는 최근에 적용한 Dagger에 대한 내용을 다루고 있습니다. Dagger는 Android 프로젝트에서 DI를 쉽게 구현할 수 있게 해주는 도구이며, 이를 적용하는 과정과 방법에 대해 설명하고 있습니다. 기사에서는 Constructor Injection과 Field Injection을 주로 사용하는 방법을 소개하고, Module과 Component를 정의하는 방법을 다루고 있습니다. 마지막으로 Dagger를 적용하고 난 뒤에도 모듈 정리와 Integration Test를 할 예정이라고 언급하며, 천천한 과정 속에서 의미 있는 작업이라고 강조하고 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민형씨는 우아한형제들 배민앱개발팀에서 안드로이드 앱을 개발 중이며, 배달의민족 앱에서 리모트 컨피그 기능을 소개했습니다. 앱 배포 없이 설정 값을 적용하는 방법을 설명하고, 개발 및 테스트 환경을 유연하게 관리할 수 있는 방법을 소개했습니다. 리모트 컨피그를 통해 앱 버전과 상관없이 데이터를 업데이트할 수 있으며, 테스트 환경을 쉽게 변경할 수 있습니다. 이를 통해 앱 운영이슈를 줄이고 생산성을 향상시킬 수 있다고 이야기했습니다. 같은 목적으로 파이어베이스에서도 리모트컨피그 클라우드 서비스를 제공하고 있으며, 리모트 컨피그의 중요성을 강조했습니다.앱 관점의 리모트 컨피그 기능 설명 외에도 다른 리모트 컨피그 서버 구축기에 대한 공유를 추천했습니다.</t>
+  </si>
+  <si>
+    <t>tag_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글플레이의 보안 및 개인 정보 보호 정책 강화로 인해 민감한 권한을 제거해야 하는 안드로이드 앱 개발의 중요성에 대한 이야기입니다. 'API 레벨 26 이상 지정'과 '통화 기록 및 SMS 사용 권한 제한' 정책을 준수해야 하는데, 이를 위해 필요한 조치와 업데이트 방법에 대해 다루고 있습니다. 또한 동일한 버전 코드 문제와 Multiple Apks 지원에 따른 앱 업데이트 전략에 대한 내용도 포함되어 있습니다. 안드로이드 개발자들에게 유용한 정보를 제공하고, 정책을 준수하여 앱의 보안을 강화하는데 도움이 될 것입니다."}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아한형제들의 그룹웨어 '우아한오피스' 리뉴얼 프로젝트는 외부 레퍼런스가 거의 없는 상황에서 시작되었습니다. 프로젝트는 유관 조직들과의 협업을 통해 다양한 기획 도구를 활용해 진행되었으며, 초기 단계부터 문제를 도식화하고, 컨셉 워크숍을 통해 아이디어를 도출했습니다. FigJam과 Figma를 이용해 아이디어를 시각화하고, ChatGPT 등의 기술을 활용해 메시지 자동 생성 기능을 구현하는 등 혁신적인 방법을 도입했습니다. 또한, 데이터 로그를 통해 수집한 데이터를 기반으로 의사결정을 내리고, 사용자 의견을 반영하며 프로젝트를 성공적으로 완료했습니다. PM과 개발자의 긴밀한 협업이 프로젝트의 성과에 큰 기여를 했습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>당근마켓 웹사이트에서는 구글 애널리틱스(GA)의 맞춤 측정 기준과 쿠키를 활용하여 A/B 테스트를 쉽게 구현했습니다. GA 관리자 페이지에서 맞춤 측정 기준을 추가하고, 사용자 중 20%에게만 대안 페이지를 보여주도록 쿠키를 설정했습니다. 이 쿠키 값을 기반으로 GA에서 페이지뷰를 보내기 전에 맞춤 측정 기준을 설정했습니다. 그런 다음, 쿠키 값에 따라 원래 페이지와 대안 페이지를 분기하여 보여주었습니다. 이후 GA에서 데이터를 확인하여 각 페이지의 이탈률을 비교 분석함으로써 사용자 경험을 개선할 수 있었습니다.</t>
-  </si>
-  <si>
-    <t>당근마켓 검색팀은 사용자 경험을 개선하기 위해 중고거래 필터를 새롭게 디자인하고, 접근성을 높이는 작업을 진행했습니다. 기존 필터는 한 번에 여러 조건을 볼 수 있었지만, 존재를 인지하기 어려워 필터 사용성을 높이기 위해 팁 형태로 노출하고 적용된 값을 표시하는 방식으로 디자인을 변경했습니다. 또한, 사용자 행동 데이터를 분석해 검색어마다 적절한 카테고리와 가격 구간을 추천하여 필터 사용을 더 편리하게 만들었습니다. 이를 통해 필터 사용 비율이 증가했고, 검색 서비스 품질이 향상되었습니다. 필터 데이터를 통해 사용자 행동을 더 잘 이해할 수 있었으며, 앞으로도 검색 랭킹을 개선해 나갈 계획입니다.</t>
-  </si>
-  <si>
-    <t>이 글에서는 당근마켓의 검색팀이 중고거래 검색 랭킹을 개선하기 위해 카테고리를 활용한 과정을 설명합니다. 사용자가 옷장 검색 시 의류 판매글이 많이 나오는 문제를 해결하기 위해 검색어와 카테고리의 연관성을 분석하고, 검색 후 클릭률을 기반으로 카테고리별 중요도를 계산하여 검색 결과에 반영했습니다. 또한, 가방 검색 시 여성용 가방만 노출되는 문제를 해결하기 위해 카테고리 확장 모델을 도입하여 다양한 카테고리를 부스팅했습니다. 이를 통해 검색 품질이 크게 개선되었고, 사용자 경험이 향상되었습니다. 하지만 여전히 아이폰 검색 시 악세서리까지 나오는 문제 등 해결해야 할 과제가 남아 있으며, 검색팀은 이를 위해 다양한 특성을 검색 랭킹에 활용할 방법을 계속 모색하고 있습니다.</t>
-  </si>
-  <si>
-    <t>당근마켓 검색 시스템 개발자 Hy Lee가 검색 랭킹 파이프라인의 기술 스택과 단계를 설명하며 검색 랭킹이 어떻게 만들어지는지 소개합니다. 검색 문서 분류, 색인, 랭킹 모델 생성, 서빙 및 실험의 네 단계로 구성된 이 시스템은 문서 분류를 통해 문서의 종류를 식별하고, 색인 단계에서 문서의 제목과 내용 등을 검색 엔진에 등록합니다. 이후 랭킹 모델을 생성해 사용자 질의에 따른 문서의 가중치를 계산하고, 최종적으로 이를 서빙하여 사용자에게 검색 결과를 제공합니다. 각 단계는 시스템 안정성과 효율성을 고려해 설계되었으며, Airflow, Kubernetes, Spark 등 다양한 기술을 활용해 대규모 데이터를 처리합니다. 검색 시스템 개발의 도전과 과정을 공유하며 검색팀에 대한 지원을 독려합니다.</t>
-  </si>
-  <si>
-    <t>이 글에서는 프로젝트 일정계획 수립에 대한 네 가지 주요 모델인 CPM, CCPM, 스크럼, 칸반을 소개합니다. 각 모델의 특징과 차이점을 설명하며, 공통적으로 일정계획 수립 시 무엇을, 언제부터 언제까지 수행할지 결정해야 한다고 강조합니다. 일정계획 수립 모델을 적용할 때는 업무의 상세 정의, 일정관리 도구의 선택, 일정관리 도구의 목적, 내용의 중요성을 고려해야 합니다. CPM은 복잡한 관계가 있는 프로젝트에, CCPM은 자원 제약이 많은 프로젝트에 적합합니다. 스크럼은 동일한 개발주기가 필요한 프로젝트에, 칸반은 신뢰 기반의 운영 업무에 적합합니다. 이러한 설명을 통해 프로젝트 관리자가 상황에 맞는 일정계획 수립 모델을 선택하고 활용할 수 있도록 안내합니다.</t>
-  </si>
-  <si>
-    <t>이 글에서는 프로젝트 계획 수립의 중요성과 방법을 다룹니다. 프로젝트 헌장 작성, 시작 시 적당한 계획 수립, 프로젝트 계획 양식 작성 등의 단계를 설명합니다. WBS, 목표 일정, 위험 목록 등 계획 수립에 필요한 요소들을 강조하며, 계획은 경험을 바탕으로 주 단위로 점검해야 한다고 언급합니다. 또한, 프로젝트 출시 기준을 정의하고 SMART 원칙에 따라 명확하고 측정 가능하며 달성 가능한 기준을 설정할 것을 권장합니다. 출시 기준의 진척도는 프로젝트 대시보드에서 관리하며, 주기적으로 검토하여 목표를 달성하도록 합니다. 출시 기준을 팀원 및 상관과 공유하고 승인받는 절차도 강조합니다.</t>
-  </si>
-  <si>
-    <t>이 글은 우아한형제들 세일즈서비스팀이 효과적인 협업을 위해 도입한 다양한 시도와 방법들을 소개합니다. 이 팀은 신규 입사자의 온보딩을 위해 페어로 일하기, 대화의 시간, 당근 흔들기 같은 방법을 도입해 빠른 적응을 도왔습니다. 또한, 팀원 간 이해도 차이를 줄이기 위해 이벤트 스토밍과 품앗이 설명회를 통해 지식을 공유하고 있습니다. 이슈 해결 방식을 체계적으로 관리하고, 슬랙과 지라를 활용해 이슈를 일원화하고 우선순위에 따라 처리하는 방식을 도입해 업무 효율성을 높였습니다. 이러한 시도들은 팀원 간의 지식 격차를 줄이고, 새로운 입사자들도 빠르게 적응할 수 있도록 도와주었습니다. 결론적으로, 이 팀은 협업의 중요성을 강조하며 지속적으로 더 나은 일하는 방식을 찾기 위해 노력하고 있습니다.</t>
-  </si>
-  <si>
-    <t>이 글에서는 배민선물하기 팀의 PM 곽민경이 백로그를 효과적으로 관리하고, 이를 통해 프로덕트를 개선하는 방법에 대해 설명합니다. 백로그는 PM에게 중요한 과제이며, 우선순위를 잘못 설정하면 중요한 작업이 미뤄질 수 있습니다. 곽민경은 고객의 목소리를 모니터링하고, 작은 요구에서 출발하여 백로그를 분석한 후, 팀원들과 함께 '거절 경험 개선'이라는 과제로 정의하여 해결책을 모색했습니다. 이를 통해 거절 기능의 사용성을 개선하고 고객 만족도를 높였으며, 백로그를 체계적으로 관리하는 방법의 중요성을 강조했습니다. 백로그 관리는 단순히 할 일을 미루는 것이 아니라, 제품의 발전을 위한 중요한 과정이라는 메시지를 전달합니다.</t>
-  </si>
-  <si>
-    <t>우아한형제들의 그룹웨어 '우아한오피스' 리뉴얼 프로젝트는 외부 레퍼런스가 거의 없는 상황에서 시작되었습니다. 프로젝트는 유관 조직들과의 협업을 통해 다양한 기획 도구를 활용해 진행되었으며, 초기 단계부터 문제를 도식화하고, 컨셉 워크숍을 통해 아이디어를 도출했습니다. FigJam과 Figma를 이용해 아이디어를 시각화하고, ChatGPT 등의 기술을 활용해 메시지 자동 생성 기능을 구현하는 등 혁신적인 방법을 도입했습니다. 또한, 데이터 로그를 통해 수집한 데이터를 기반으로 의사결정을 내리고, 사용자 의견을 반영하며 프로젝트를 성공적으로 완료했습니다. PM과 개발자의 긴밀한 협업이 프로젝트의 성과에 큰 기여를 했습니다.</t>
-  </si>
-  <si>
-    <t>B마트는 실험 문화가 전무했던 조직에서 가장 실험을 활발히 하는 조직으로 성장했습니다. 이 과정에서 추천시스템팀과의 협업을 통해 실험 성숙도를 높여나갔습니다. 실험 성숙도는 1단계에서 4단계로 나뉘며, 각 단계마다 목표와 방법이 다릅니다. B마트는 실험의 필요성을 인식하고 데이터를 기반으로 한 의사결정을 통해 지속적으로 개선해왔습니다. 실험을 성공적으로 수행하기 위해서는 실험 리소스 확보, 데이터 로깅 중요성 인식, 실험 설계 보완책, 실험 결과 해석 능력 향상이 필요합니다. 조직 내 실험 문화를 구축하고 성숙도를 높이는 과정은 많은 노력과 협업을 필요로 하지만, 이는 조직의 발전과 혁신에 크게 기여할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>우아한형제들의 PM들이 '배민 기획자의 일'이라는 책을 통해 그들의 경험과 인사이트를 공유한다. 다양한 배경을 가진 PM들이 자신의 경력 시작과 배경을 이야기하며, PM 업무의 보람과 어려움을 나눈다. 그들은 프로젝트 진행 중 발생하는 문제들을 해결하며, 다양한 부서와 협업하고, 때로는 고객과의 소통을 통해 더 나은 서비스를 제공하는 데 중점을 둔다. PM이 되기 위한 특정한 전공은 없으며, 다양한 경험을 통해 PM으로 성장할 수 있음을 강조한다. 책 쓰기 과정에서도 마치 PM처럼 체계적으로 접근하고, 동료들과 협업하여 완성해가는 과정을 통해 PM 업무의 본질과 매력을 다시금 확인한다. PM이 되고 싶은 사람들, 초보 PM들, 그리고 IT 업계에 종사하는 이들에게 이 책이 큰 도움이 될 것이다.</t>
-  </si>
-  <si>
-    <t>우아한형제들의 막내 PM인 이송인은 셀러시스템팀에서 일하며 겪은 경험을 통해 PM 업무의 도전과 해결 방안을 공유한다. 배달의민족의 MSA 구조와 복잡한 영향 범위 때문에 프로젝트를 조율하는 데 어려움이 많지만, 여러 부서와 협력해 문제를 해결해나가는 과정이 중요하다고 강조한다. 특히 '가게 운영시간 관리 개선' 프로젝트를 통해, 예상치 못한 일정 변경과 작업 범위 조율 등의 문제를 끈질기게 해결하는 경험을 나눈다. 결국, 솔직한 소통과 협력을 통해 문제의 본질을 파악하고 해결 방안을 찾는 것이 PM의 핵심 역할임을 강조하며, PM으로서의 용기와 지혜를 독려한다.</t>
-  </si>
-  <si>
-    <t>3. 배민외식업광장 PM 권자경은 외식업 사장님들을 위한 '장사캘린더' 서비스를 개발하고 개선한 경험을 공유한다. 장사캘린더는 사장님들이 놓치기 쉬운 세무 일정, 지원 사업 신청 일자 등을 제공하는 캘린더 서비스이다. 프로젝트 시작 시 사장님의 니즈를 파악하고 검증된 아이템을 분석하여 '장사소식' 콘텐츠의 인기를 참고하였다. MVP 범위를 설정하고 빠르게 오픈하여 가설 검증을 통해 얻은 인사이트를 반영하였다. 오픈 후, 지원사업 수량 감소와 같은 문제를 해결하고 사용자 인터뷰를 통해 개선점을 찾아냈다. 이를 통해 사용자가 꼭 필요한 서비스를 만드는 방법을 배웠으며, PM으로서의 역할과 경험을 바탕으로 얻은 교훈을 공유하였다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 방법론</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 앱을 개발하던 개발자가 배민앱에서 새로운 배민마켓 서비스를 빠르게 개발하는 경험을 공유했습니다. MVP와 클린 아키텍처를 사용해 프로젝트를 진행했고, Presentation, Domain, Data 레이어로 구분하여 개발했습니다. 데이터 소스 처리와 아키텍처의 장단점에 대한 논의를 하며 2주만에 완성된 배민마켓이 소개되었습니다. 클린 아키텍처의 장점으로는 코드의 명확한 분리와 구조 파악이 용이하다는 것을 언급하며, 다양한 아키텍처에 대한 토론을 통해 더 나은 개발 방향을 모색하고자 했습니다.든 배달하는 배민마켓 파이팅!'와 함께 마무리되었습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1907,11 +1949,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1921,10 +1961,11 @@
     <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="255.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1953,10 +1994,16 @@
         <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1985,10 +2032,13 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>159</v>
       </c>
@@ -2017,10 +2067,10 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2049,10 +2099,16 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2081,10 +2137,13 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2113,10 +2172,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2145,10 +2207,16 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2177,10 +2245,16 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2209,10 +2283,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2241,10 +2318,16 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="231" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="231" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2273,10 +2356,13 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2305,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2337,10 +2423,13 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2369,10 +2458,16 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2401,10 +2496,13 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2433,10 +2531,16 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2465,10 +2569,13 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2497,10 +2604,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -2529,10 +2639,13 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2561,10 +2674,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2593,10 +2709,16 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2625,10 +2747,16 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2657,10 +2785,16 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -2689,10 +2823,16 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2721,10 +2861,13 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2753,10 +2896,13 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2785,10 +2931,16 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -2817,10 +2969,16 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K28" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2849,10 +3007,13 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -2881,10 +3042,16 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2913,10 +3080,13 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -2945,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -2977,10 +3147,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3009,10 +3182,16 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K34" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -3041,10 +3220,16 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -3073,10 +3258,16 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -3105,10 +3296,16 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -3137,10 +3334,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -3169,10 +3369,16 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -3195,16 +3401,22 @@
         <v>90953</v>
       </c>
       <c r="H40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3227,16 +3439,19 @@
         <v>90953</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -3259,16 +3474,19 @@
         <v>90953</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -3291,16 +3509,22 @@
         <v>90953</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -3323,16 +3547,19 @@
         <v>90953</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -3355,16 +3582,22 @@
         <v>90953</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K45" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -3387,16 +3620,22 @@
         <v>90953</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="K46" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -3419,16 +3658,22 @@
         <v>90953</v>
       </c>
       <c r="H47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I47">
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s">
+        <v>182</v>
+      </c>
+      <c r="L47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -3451,16 +3696,19 @@
         <v>90953</v>
       </c>
       <c r="H48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I48">
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -3483,16 +3731,22 @@
         <v>90953</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -3515,16 +3769,22 @@
         <v>90953</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K50" t="s">
+        <v>174</v>
+      </c>
+      <c r="L50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -3547,16 +3807,19 @@
         <v>90953</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -3579,16 +3842,19 @@
         <v>90953</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -3611,16 +3877,19 @@
         <v>90953</v>
       </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="K53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -3643,16 +3912,19 @@
         <v>90953</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -3675,16 +3947,22 @@
         <v>90953</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="K55" t="s">
+        <v>168</v>
+      </c>
+      <c r="L55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -3698,16 +3976,19 @@
         <v>90953</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -3721,16 +4002,19 @@
         <v>90953</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="K57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -3744,16 +4028,16 @@
         <v>90953</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -3767,16 +4051,19 @@
         <v>90953</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -3790,16 +4077,22 @@
         <v>90953</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K60" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -3822,16 +4115,19 @@
         <v>90953</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
+        <v>162</v>
+      </c>
+      <c r="K61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -3854,16 +4150,19 @@
         <v>90953</v>
       </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -3886,16 +4185,22 @@
         <v>90953</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63">
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="K63" t="s">
+        <v>178</v>
+      </c>
+      <c r="L63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -3909,16 +4214,22 @@
         <v>90953</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K64" t="s">
+        <v>167</v>
+      </c>
+      <c r="L64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3932,16 +4243,22 @@
         <v>90953</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s">
+        <v>161</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -3955,16 +4272,22 @@
         <v>90953</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K66" t="s">
+        <v>161</v>
+      </c>
+      <c r="L66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -3978,16 +4301,22 @@
         <v>90953</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I67">
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K67" t="s">
+        <v>165</v>
+      </c>
+      <c r="L67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -4001,16 +4330,22 @@
         <v>90953</v>
       </c>
       <c r="H68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
+        <v>169</v>
+      </c>
+      <c r="L68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -4024,16 +4359,22 @@
         <v>90953</v>
       </c>
       <c r="H69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I69">
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K69" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -4047,16 +4388,19 @@
         <v>90953</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -4070,16 +4414,16 @@
         <v>90953</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -4093,16 +4437,22 @@
         <v>90953</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -4125,16 +4475,22 @@
         <v>90953</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73">
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K73" t="s">
+        <v>160</v>
+      </c>
+      <c r="L73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -4157,16 +4513,22 @@
         <v>90953</v>
       </c>
       <c r="H74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K74" t="s">
+        <v>163</v>
+      </c>
+      <c r="L74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -4189,16 +4551,22 @@
         <v>90953</v>
       </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K75" t="s">
+        <v>184</v>
+      </c>
+      <c r="L75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -4212,16 +4580,22 @@
         <v>90953</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K76" t="s">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -4235,16 +4609,22 @@
         <v>90953</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I77">
         <v>3</v>
       </c>
       <c r="J77" t="s">
+        <v>209</v>
+      </c>
+      <c r="K77" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -4258,16 +4638,22 @@
         <v>90953</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="K78" t="s">
+        <v>210</v>
+      </c>
+      <c r="L78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -4281,16 +4667,22 @@
         <v>90953</v>
       </c>
       <c r="H79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" t="s">
+        <v>182</v>
+      </c>
+      <c r="L79" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -4304,16 +4696,19 @@
         <v>90953</v>
       </c>
       <c r="H80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I80">
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -4336,16 +4731,22 @@
         <v>90953</v>
       </c>
       <c r="H81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I81">
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="K81" t="s">
+        <v>167</v>
+      </c>
+      <c r="L81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -4368,16 +4769,22 @@
         <v>90953</v>
       </c>
       <c r="H82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I82">
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="K82" t="s">
+        <v>167</v>
+      </c>
+      <c r="L82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -4400,16 +4807,22 @@
         <v>90953</v>
       </c>
       <c r="H83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I83">
         <v>3</v>
       </c>
       <c r="J83" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -4423,16 +4836,19 @@
         <v>90953</v>
       </c>
       <c r="H84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I84">
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -4446,16 +4862,22 @@
         <v>90953</v>
       </c>
       <c r="H85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85">
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K85" t="s">
+        <v>184</v>
+      </c>
+      <c r="L85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>148</v>
       </c>
@@ -4469,16 +4891,22 @@
         <v>90953</v>
       </c>
       <c r="H86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I86">
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K86" t="s">
+        <v>184</v>
+      </c>
+      <c r="L86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -4492,16 +4920,22 @@
         <v>90953</v>
       </c>
       <c r="H87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I87">
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K87" t="s">
+        <v>184</v>
+      </c>
+      <c r="L87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -4524,16 +4958,22 @@
         <v>90953</v>
       </c>
       <c r="H88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="K88" t="s">
+        <v>182</v>
+      </c>
+      <c r="L88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -4556,16 +4996,22 @@
         <v>90953</v>
       </c>
       <c r="H89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I89">
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="K89" t="s">
+        <v>167</v>
+      </c>
+      <c r="L89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>148</v>
       </c>
@@ -4588,16 +5034,22 @@
         <v>90953</v>
       </c>
       <c r="H90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90" t="s">
+        <v>209</v>
+      </c>
+      <c r="K90" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -4611,16 +5063,22 @@
         <v>90953</v>
       </c>
       <c r="H91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K91" t="s">
+        <v>167</v>
+      </c>
+      <c r="L91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -4634,16 +5092,22 @@
         <v>90953</v>
       </c>
       <c r="H92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I92">
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K92" t="s">
+        <v>167</v>
+      </c>
+      <c r="L92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -4657,16 +5121,19 @@
         <v>90953</v>
       </c>
       <c r="H93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I93">
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>148</v>
       </c>
@@ -4680,16 +5147,22 @@
         <v>90953</v>
       </c>
       <c r="H94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I94">
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K94" t="s">
+        <v>178</v>
+      </c>
+      <c r="L94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -4712,16 +5185,22 @@
         <v>90953</v>
       </c>
       <c r="H95" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="I95">
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K95" t="s">
+        <v>178</v>
+      </c>
+      <c r="L95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -4744,16 +5223,19 @@
         <v>90953</v>
       </c>
       <c r="H96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -4776,16 +5258,19 @@
         <v>90953</v>
       </c>
       <c r="H97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>148</v>
       </c>
@@ -4799,16 +5284,19 @@
         <v>90953</v>
       </c>
       <c r="H98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I98">
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -4822,16 +5310,19 @@
         <v>90953</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I99">
         <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -4845,16 +5336,19 @@
         <v>90953</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I100">
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="K100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -4877,16 +5371,16 @@
         <v>90953</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I101">
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -4900,16 +5394,19 @@
         <v>90953</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I102">
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -4923,16 +5420,19 @@
         <v>90953</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="I103">
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>148</v>
       </c>
@@ -4946,16 +5446,19 @@
         <v>90953</v>
       </c>
       <c r="H104" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I104">
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -4969,16 +5472,19 @@
         <v>90953</v>
       </c>
       <c r="H105" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I105">
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="K105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>148</v>
       </c>
@@ -4992,16 +5498,19 @@
         <v>90953</v>
       </c>
       <c r="H106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I106">
         <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="K106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>148</v>
       </c>
@@ -5015,13 +5524,207 @@
         <v>90953</v>
       </c>
       <c r="H107" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I107">
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="K107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G108">
+        <v>90953</v>
+      </c>
+      <c r="H108" t="s">
+        <v>249</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G109">
+        <v>90953</v>
+      </c>
+      <c r="H109" t="s">
+        <v>250</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>162</v>
+      </c>
+      <c r="K109" t="s">
+        <v>167</v>
+      </c>
+      <c r="L109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G110">
+        <v>90953</v>
+      </c>
+      <c r="H110" t="s">
+        <v>248</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>162</v>
+      </c>
+      <c r="K110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G111">
+        <v>90953</v>
+      </c>
+      <c r="H111" t="s">
+        <v>251</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>162</v>
+      </c>
+      <c r="K111" t="s">
+        <v>174</v>
+      </c>
+      <c r="L111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G112">
+        <v>90953</v>
+      </c>
+      <c r="H112" t="s">
+        <v>252</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+      <c r="K112" t="s">
+        <v>167</v>
+      </c>
+      <c r="L112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G113">
+        <v>90953</v>
+      </c>
+      <c r="H113" t="s">
+        <v>256</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>169</v>
+      </c>
+      <c r="K113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45413.394599826403</v>
+      </c>
+      <c r="G114">
+        <v>90953</v>
+      </c>
+      <c r="H114" t="s">
+        <v>260</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>174</v>
+      </c>
+      <c r="K114" t="s">
+        <v>162</v>
+      </c>
+      <c r="L114" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
